--- a/biology/Zoologie/Eublepharidae/Eublepharidae.xlsx
+++ b/biology/Zoologie/Eublepharidae/Eublepharidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eublepharidae sont une famille de geckos. Elle a été créée par George Albert Boulenger en 1883.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de cette famille se rencontrent dans le nord de l'Amérique, dans le sud de l'Asie et en Afrique subsaharienne.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces cette famille se distinguent des autres geckos par :
 la présence de paupières mobiles (la grande majorité des geckos a une écaille transparente sur l'œil) ;
@@ -576,9 +592,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Reptile Database   (7 sept. 2012)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Reptile Database   (7 sept. 2012) :
 Aeluroscalabotes Boulenger, 1885
 Coleonyx Gray, 1845
 Eublepharis Gray, 1827
@@ -617,9 +635,11 @@
           <t>Position phylogénétique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Gamble, Bauer, Greenbaum, &amp; Jackman, 2008[2] et Vidal &amp; Hedges, 2009[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Gamble, Bauer, Greenbaum, &amp; Jackman, 2008 et Vidal &amp; Hedges, 2009.
            o Gekkota
            │
            ├─o Pygopodoidea
@@ -662,7 +682,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Boulenger, 1883 : Remarks on the Nyctisaura. Annals and magazine of natural history, ser. 5, vol. 12, p. 308 (texte intégral).</t>
         </is>
